--- a/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>WE</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -665,12 +665,11 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -701,13 +700,13 @@
         <v>44196</v>
       </c>
       <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
@@ -717,8 +716,8 @@
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>661000</v>
       </c>
       <c r="E8" s="3">
         <v>593500</v>
@@ -727,16 +726,16 @@
         <v>597900</v>
       </c>
       <c r="G8" s="3">
-        <v>3415900</v>
+        <v>666500</v>
       </c>
       <c r="H8" s="3">
+        <v>810800</v>
+      </c>
+      <c r="I8" s="3">
         <v>881700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1056900</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -746,8 +745,8 @@
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>792900</v>
       </c>
       <c r="E9" s="3">
         <v>823900</v>
@@ -756,16 +755,16 @@
         <v>851700</v>
       </c>
       <c r="G9" s="3">
-        <v>3816000</v>
+        <v>860100</v>
       </c>
       <c r="H9" s="3">
+        <v>985100</v>
+      </c>
+      <c r="I9" s="3">
         <v>959700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1011100</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>3</v>
@@ -775,8 +774,8 @@
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>-131900</v>
       </c>
       <c r="E10" s="3">
         <v>-230400</v>
@@ -785,16 +784,16 @@
         <v>-253800</v>
       </c>
       <c r="G10" s="3">
-        <v>-400100</v>
+        <v>-193600</v>
       </c>
       <c r="H10" s="3">
+        <v>-174300</v>
+      </c>
+      <c r="I10" s="3">
         <v>-78000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>45800</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>3</v>
@@ -875,8 +874,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>103500</v>
       </c>
       <c r="E14" s="3">
         <v>215100</v>
@@ -885,16 +884,16 @@
         <v>793300</v>
       </c>
       <c r="G14" s="3">
-        <v>1699100</v>
+        <v>600700</v>
       </c>
       <c r="H14" s="3">
+        <v>280600</v>
+      </c>
+      <c r="I14" s="3">
         <v>364000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>453900</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>3</v>
@@ -904,8 +903,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>170800</v>
       </c>
       <c r="E15" s="3">
         <v>180200</v>
@@ -914,16 +913,16 @@
         <v>184200</v>
       </c>
       <c r="G15" s="3">
-        <v>779400</v>
+        <v>191200</v>
       </c>
       <c r="H15" s="3">
+        <v>198000</v>
+      </c>
+      <c r="I15" s="3">
         <v>195800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>194400</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -944,25 +943,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2900</v>
+        <v>1301100</v>
       </c>
       <c r="E17" s="3">
-        <v>4200</v>
+        <v>1443500</v>
       </c>
       <c r="F17" s="3">
         <v>2103700</v>
       </c>
       <c r="G17" s="3">
-        <v>7840000</v>
+        <v>1941600</v>
       </c>
       <c r="H17" s="3">
+        <v>1843900</v>
+      </c>
+      <c r="I17" s="3">
         <v>1909300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2145200</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
@@ -972,26 +971,26 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-640100</v>
       </c>
       <c r="E18" s="3">
-        <v>589300</v>
+        <v>-850000</v>
       </c>
       <c r="F18" s="3">
         <v>-1505800</v>
       </c>
       <c r="G18" s="3">
-        <v>-4424100</v>
+        <v>-1275100</v>
       </c>
       <c r="H18" s="3">
+        <v>-1033100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-1027600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1088300</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
@@ -1014,26 +1013,26 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-85100</v>
       </c>
       <c r="E20" s="3">
-        <v>-492900</v>
+        <v>44700</v>
       </c>
       <c r="F20" s="3">
         <v>-448600</v>
       </c>
       <c r="G20" s="3">
-        <v>940900</v>
+        <v>204700</v>
       </c>
       <c r="H20" s="3">
+        <v>132200</v>
+      </c>
+      <c r="I20" s="3">
         <v>17500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>586500</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
@@ -1043,26 +1042,26 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-554400</v>
       </c>
       <c r="E21" s="3">
-        <v>460800</v>
+        <v>-625100</v>
       </c>
       <c r="F21" s="3">
         <v>-1770200</v>
       </c>
       <c r="G21" s="3">
-        <v>-2703800</v>
+        <v>-879100</v>
       </c>
       <c r="H21" s="3">
+        <v>-703000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-814300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-307400</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
@@ -1072,8 +1071,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>121300</v>
       </c>
       <c r="E22" s="3">
         <v>113300</v>
@@ -1082,16 +1081,16 @@
         <v>104600</v>
       </c>
       <c r="G22" s="3">
-        <v>331200</v>
+        <v>100200</v>
       </c>
       <c r="H22" s="3">
+        <v>93000</v>
+      </c>
+      <c r="I22" s="3">
         <v>93200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>44800</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
@@ -1102,25 +1101,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>6900</v>
+        <v>-846500</v>
       </c>
       <c r="E23" s="3">
-        <v>-16800</v>
+        <v>-918500</v>
       </c>
       <c r="F23" s="3">
         <v>-2058900</v>
       </c>
       <c r="G23" s="3">
-        <v>-3814400</v>
+        <v>-1170500</v>
       </c>
       <c r="H23" s="3">
+        <v>-993900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1103300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-546600</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
@@ -1131,25 +1130,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F24" s="3">
         <v>3300</v>
       </c>
       <c r="G24" s="3">
-        <v>19500</v>
+        <v>-2200</v>
       </c>
       <c r="H24" s="3">
+        <v>5600</v>
+      </c>
+      <c r="I24" s="3">
         <v>7100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>9000</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1189,25 +1188,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>6900</v>
+        <v>-844300</v>
       </c>
       <c r="E26" s="3">
-        <v>-16800</v>
+        <v>-922500</v>
       </c>
       <c r="F26" s="3">
         <v>-2062200</v>
       </c>
       <c r="G26" s="3">
-        <v>-3833900</v>
+        <v>-1168300</v>
       </c>
       <c r="H26" s="3">
+        <v>-999500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1110400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-555600</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
@@ -1218,25 +1217,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>6900</v>
+        <v>-802400</v>
       </c>
       <c r="E27" s="3">
-        <v>16900</v>
+        <v>-888800</v>
       </c>
       <c r="F27" s="3">
         <v>-2032400</v>
       </c>
       <c r="G27" s="3">
-        <v>-3129400</v>
+        <v>-1140400</v>
       </c>
       <c r="H27" s="3">
+        <v>-941300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-863800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-183900</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
@@ -1362,26 +1361,26 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>85100</v>
       </c>
       <c r="E32" s="3">
-        <v>492900</v>
+        <v>-44700</v>
       </c>
       <c r="F32" s="3">
         <v>448600</v>
       </c>
       <c r="G32" s="3">
-        <v>-940900</v>
+        <v>-204700</v>
       </c>
       <c r="H32" s="3">
+        <v>-132200</v>
+      </c>
+      <c r="I32" s="3">
         <v>-17500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-586500</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
@@ -1392,25 +1391,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>6900</v>
+        <v>-802400</v>
       </c>
       <c r="E33" s="3">
-        <v>16900</v>
+        <v>-888800</v>
       </c>
       <c r="F33" s="3">
         <v>-2032400</v>
       </c>
       <c r="G33" s="3">
-        <v>-3129400</v>
+        <v>-1140400</v>
       </c>
       <c r="H33" s="3">
+        <v>-941300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-863800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-183900</v>
-      </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
@@ -1450,25 +1449,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>6900</v>
+        <v>-802400</v>
       </c>
       <c r="E35" s="3">
-        <v>16900</v>
+        <v>-888800</v>
       </c>
       <c r="F35" s="3">
         <v>-2032400</v>
       </c>
       <c r="G35" s="3">
-        <v>-3129400</v>
+        <v>-1140400</v>
       </c>
       <c r="H35" s="3">
+        <v>-941300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-863800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-183900</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
@@ -1496,13 +1495,13 @@
         <v>44196</v>
       </c>
       <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
@@ -1539,7 +1538,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>200</v>
+        <v>477200</v>
       </c>
       <c r="E41" s="3">
         <v>844000</v>
@@ -1596,8 +1595,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>302700</v>
       </c>
       <c r="E43" s="3">
         <v>297500</v>
@@ -1655,7 +1654,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>233100</v>
       </c>
       <c r="E45" s="3">
         <v>256100</v>
@@ -1684,7 +1683,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>500</v>
+        <v>1013100</v>
       </c>
       <c r="E46" s="3">
         <v>1397600</v>
@@ -1713,7 +1712,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>483100</v>
+        <v>245500</v>
       </c>
       <c r="E47" s="3">
         <v>243800</v>
@@ -1741,8 +1740,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>19119600</v>
       </c>
       <c r="E48" s="3">
         <v>19914400</v>
@@ -1770,8 +1769,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>735200</v>
       </c>
       <c r="E49" s="3">
         <v>732500</v>
@@ -1857,8 +1856,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>842500</v>
       </c>
       <c r="E52" s="3">
         <v>898100</v>
@@ -1916,7 +1915,7 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>483600</v>
+        <v>21955900</v>
       </c>
       <c r="E54" s="3">
         <v>23186300</v>
@@ -1971,7 +1970,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>602800</v>
       </c>
       <c r="E57" s="3">
         <v>537600</v>
@@ -1999,8 +1998,8 @@
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>387400</v>
       </c>
       <c r="E58" s="3">
         <v>391700</v>
@@ -2029,7 +2028,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5900</v>
+        <v>1423300</v>
       </c>
       <c r="E59" s="3">
         <v>1407400</v>
@@ -2058,7 +2057,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6200</v>
+        <v>2413500</v>
       </c>
       <c r="E60" s="3">
         <v>2336800</v>
@@ -2087,7 +2086,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>21220800</v>
       </c>
       <c r="E61" s="3">
         <v>21796000</v>
@@ -2116,7 +2115,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>33100</v>
+        <v>336700</v>
       </c>
       <c r="E62" s="3">
         <v>341400</v>
@@ -2232,7 +2231,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>39300</v>
+        <v>24253400</v>
       </c>
       <c r="E66" s="3">
         <v>24772100</v>
@@ -2332,7 +2331,7 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>0</v>
+        <v>8379200</v>
       </c>
       <c r="E70" s="3">
         <v>8379200</v>
@@ -2390,7 +2389,7 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-38800</v>
+        <v>-13427100</v>
       </c>
       <c r="E72" s="3">
         <v>-12624700</v>
@@ -2506,7 +2505,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>444200</v>
+        <v>-10676700</v>
       </c>
       <c r="E76" s="3">
         <v>-9965000</v>
@@ -2581,13 +2580,13 @@
         <v>44196</v>
       </c>
       <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
@@ -2598,25 +2597,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>6900</v>
+        <v>-802400</v>
       </c>
       <c r="E81" s="3">
-        <v>16900</v>
+        <v>-888800</v>
       </c>
       <c r="F81" s="3">
         <v>-2032400</v>
       </c>
       <c r="G81" s="3">
-        <v>-3129400</v>
+        <v>-1140400</v>
       </c>
       <c r="H81" s="3">
+        <v>-941300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-863800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-183900</v>
-      </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
@@ -2639,26 +2638,26 @@
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3" t="s">
-        <v>3</v>
+      <c r="D83" s="3">
+        <v>170800</v>
       </c>
       <c r="E83" s="3">
-        <v>364300</v>
+        <v>180200</v>
       </c>
       <c r="F83" s="3">
         <v>184200</v>
       </c>
       <c r="G83" s="3">
-        <v>779400</v>
+        <v>191200</v>
       </c>
       <c r="H83" s="3">
+        <v>198000</v>
+      </c>
+      <c r="I83" s="3">
         <v>195800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>194400</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
@@ -2814,25 +2813,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1158100</v>
+        <v>-380200</v>
       </c>
       <c r="E89" s="3">
-        <v>-1159000</v>
+        <v>-617800</v>
       </c>
       <c r="F89" s="3">
         <v>-541200</v>
       </c>
       <c r="G89" s="3">
-        <v>-857000</v>
+        <v>-439300</v>
       </c>
       <c r="H89" s="3">
+        <v>-249100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-354700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>186200</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
@@ -2855,26 +2854,26 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>3</v>
+      <c r="D91" s="3">
+        <v>-49400</v>
       </c>
       <c r="E91" s="3">
-        <v>-153100</v>
+        <v>-31200</v>
       </c>
       <c r="F91" s="3">
         <v>-121900</v>
       </c>
       <c r="G91" s="3">
-        <v>-1441200</v>
+        <v>-188400</v>
       </c>
       <c r="H91" s="3">
+        <v>-267800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-316500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-668500</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
@@ -2943,25 +2942,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>186800</v>
+        <v>-57500</v>
       </c>
       <c r="E94" s="3">
-        <v>-186600</v>
+        <v>-49700</v>
       </c>
       <c r="F94" s="3">
         <v>-137000</v>
       </c>
       <c r="G94" s="3">
-        <v>-444100</v>
+        <v>-247000</v>
       </c>
       <c r="H94" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="I94" s="3">
         <v>-382000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>374900</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
@@ -3101,25 +3100,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1349700</v>
+        <v>69200</v>
       </c>
       <c r="E100" s="3">
-        <v>1349700</v>
+        <v>760800</v>
       </c>
       <c r="F100" s="3">
         <v>588900</v>
       </c>
       <c r="G100" s="3">
-        <v>-46800</v>
+        <v>549200</v>
       </c>
       <c r="H100" s="3">
+        <v>559100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-105700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-1049400</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -3129,26 +3128,26 @@
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>3</v>
+      <c r="D101" s="3">
+        <v>1400</v>
       </c>
       <c r="E101" s="3">
-        <v>-2800</v>
+        <v>3900</v>
       </c>
       <c r="F101" s="3">
         <v>-6700</v>
       </c>
       <c r="G101" s="3">
-        <v>1400</v>
+        <v>5700</v>
       </c>
       <c r="H101" s="3">
+        <v>18300</v>
+      </c>
+      <c r="I101" s="3">
         <v>15400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-38000</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
@@ -3159,25 +3158,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2000</v>
+        <v>-367000</v>
       </c>
       <c r="E102" s="3">
-        <v>1300</v>
+        <v>97400</v>
       </c>
       <c r="F102" s="3">
         <v>-96000</v>
       </c>
       <c r="G102" s="3">
-        <v>-1346500</v>
+        <v>-131500</v>
       </c>
       <c r="H102" s="3">
+        <v>138300</v>
+      </c>
+      <c r="I102" s="3">
         <v>-827100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-526300</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>WE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>717800</v>
+      </c>
+      <c r="E8" s="3">
         <v>661000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>593500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>597900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>666500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>810800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>881700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1056900</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>775200</v>
+      </c>
+      <c r="E9" s="3">
         <v>792900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>823900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>851700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>860100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>985100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>959700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1011100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="E10" s="3">
         <v>-131900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-230400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-253800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-193600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-174300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-78000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>45800</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -811,8 +823,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -840,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -869,66 +885,75 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>192700</v>
+      </c>
+      <c r="E14" s="3">
         <v>103500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>215100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>793300</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>600700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>280600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>364000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>453900</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E15" s="3">
         <v>170800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>180200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>184200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>191200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>198000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>195800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>194400</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -937,66 +962,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1419400</v>
+      </c>
+      <c r="E17" s="3">
         <v>1301100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1443500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2103700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1941600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1843900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1909300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2145200</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-701600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-640100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-850000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1505800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1275100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1033100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1027600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1088300</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1008,153 +1040,169 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-85100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>44700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-448600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>204700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>132200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>17500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>586500</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-514300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-554400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-625100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1770200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-879100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-703000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-814300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-307400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>115600</v>
+      </c>
+      <c r="E22" s="3">
         <v>121300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>113300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>104600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>93000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>93200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>44800</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-804200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-846500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-918500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2058900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1170500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-993900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1103300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-546600</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>9000</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,66 +1230,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-802600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-844300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-922500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2062200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1168300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-999500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1110400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-555600</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-715400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-802400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-888800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2032400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1140400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-941300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-863800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-183900</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1269,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1327,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1356,66 +1422,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E32" s="3">
         <v>85100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-44700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>448600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-204700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-132200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-17500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-586500</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-715400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-802400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-888800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2032400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1140400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-941300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-863800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-183900</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1443,71 +1518,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-715400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-802400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-888800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2032400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1140400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-941300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-863800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-183900</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1519,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1532,23 +1617,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>923700</v>
+      </c>
+      <c r="E41" s="3">
         <v>477200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>844000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>719300</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1561,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1590,23 +1679,26 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>287100</v>
+      </c>
+      <c r="E43" s="3">
         <v>302700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>297500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>289800</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1619,8 +1711,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1648,23 +1743,26 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>260600</v>
+      </c>
+      <c r="E45" s="3">
         <v>233100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>256100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>269800</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1677,23 +1775,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1471400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1013100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1397600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1278900</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1706,23 +1807,26 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>239300</v>
+      </c>
+      <c r="E47" s="3">
         <v>245500</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>243800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>243700</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1735,23 +1839,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>18426300</v>
+      </c>
+      <c r="E48" s="3">
         <v>19119600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19914400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>20852900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1764,23 +1871,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>734100</v>
+      </c>
+      <c r="E49" s="3">
         <v>735200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>732500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>729300</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1793,8 +1903,11 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1822,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1851,23 +1967,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>885100</v>
+      </c>
+      <c r="E52" s="3">
         <v>842500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>898100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>978700</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1880,8 +1999,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1909,23 +2031,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>21756200</v>
+      </c>
+      <c r="E54" s="3">
         <v>21955900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>23186300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>24083400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1938,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1951,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1964,23 +2093,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>621100</v>
+      </c>
+      <c r="E57" s="3">
         <v>602800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>537600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>576600</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1993,23 +2123,26 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E58" s="3">
         <v>387400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>391700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>23600</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,23 +2155,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1477300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1423300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1407400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1564100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2051,23 +2187,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2132700</v>
+      </c>
+      <c r="E60" s="3">
         <v>2413500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2336800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2164200</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2080,22 +2219,25 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>21220800</v>
+        <v>2903600</v>
       </c>
       <c r="E61" s="3">
-        <v>21796000</v>
+        <v>2899300</v>
       </c>
       <c r="F61" s="3">
-        <v>22015900</v>
+        <v>2900400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2520600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2109,22 +2251,25 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>336700</v>
+        <v>18133300</v>
       </c>
       <c r="E62" s="3">
-        <v>341400</v>
+        <v>18658200</v>
       </c>
       <c r="F62" s="3">
-        <v>344100</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>19237000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>19839500</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2138,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2167,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2196,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2225,23 +2379,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23638200</v>
+      </c>
+      <c r="E66" s="3">
         <v>24253400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>24772100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>24852000</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2254,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2267,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2296,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2325,13 +2489,16 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>8379200</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>8379200</v>
@@ -2340,7 +2507,7 @@
         <v>8379200</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>8379200</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2354,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2383,23 +2553,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-14142500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-13427100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-12624700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11735800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2412,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2441,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2470,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2499,23 +2681,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1882100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-10676700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-9965000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-9147700</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2557,71 +2745,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-715400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-802400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-888800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2032400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1140400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-941300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-863800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-183900</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2633,37 +2830,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E83" s="3">
         <v>170800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>180200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>184200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>191200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>198000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>195800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>194400</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2691,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2720,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2749,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2778,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2807,37 +3020,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-372800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-380200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-617800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-541200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-439300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-249100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-354700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>186200</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2849,37 +3068,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-94300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-49400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-31200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-121900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-188400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-267800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-316500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-668500</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2907,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2936,37 +3162,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-57500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-49700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-137000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-247000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-190000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-382000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>374900</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2978,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3007,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3036,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3065,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3094,91 +3336,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>919000</v>
+      </c>
+      <c r="E100" s="3">
         <v>69200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>760800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>588900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>549200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>559100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-105700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-1049400</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E101" s="3">
         <v>1400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>3900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-6700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>5700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>18300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>15400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-38000</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>446500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-367000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>97400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-96000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-131500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>138300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-827100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-526300</v>
       </c>
-      <c r="K102" s="3" t="s">
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>WE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,177 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>815000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>765000</v>
+      </c>
+      <c r="F8" s="3">
         <v>717800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>661000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>593500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>597900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>666500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>810800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>881700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1056900</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>774000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>783000</v>
+      </c>
+      <c r="F9" s="3">
         <v>775200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>792900</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>823900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>851700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>860100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>985100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>959700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1011100</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="F10" s="3">
         <v>-57400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-131900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-230400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-253800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-193600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-174300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-78000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>45800</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,8 +848,10 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -856,8 +882,14 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,72 +920,90 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F14" s="3">
         <v>192700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>103500</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>215100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>793300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>600700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>280600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>364000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>453900</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F15" s="3">
         <v>174300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>170800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>180200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>184200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>191200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>198000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>195800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>194400</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,72 +1013,86 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1419400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1301100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1443500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2103700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1941600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1843900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1909300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2145200</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-316000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-358000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-701600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-640100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-850000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-1505800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1275100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-1033100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1027600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1088300</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,168 +1105,200 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-157000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="F20" s="3">
         <v>13000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-85100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>44700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-448600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>204700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>132200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>17500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>586500</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-315000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-221000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-514300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-554400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-625100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-1770200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-879100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-703000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-814300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-307400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>159000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>113000</v>
+      </c>
+      <c r="F22" s="3">
         <v>115600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>121300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>113300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>104600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>100200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>93000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>93200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>44800</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-632000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-505000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-804200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-846500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-918500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2058900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1170500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-993900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1103300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-546600</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>3300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-2200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>5600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>7100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>9000</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1329,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-635000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-504000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-802600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-844300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-922500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2062200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1168300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-999500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1110400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-555600</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-577000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-435000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-715400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-802400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-888800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2032400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1140400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-941300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-863800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-183900</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1443,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1481,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1519,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,72 +1557,90 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>34000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-13000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>85100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-44700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>448600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-204700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-132200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-17500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-586500</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-577000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-435000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-715400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-802400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-888800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2032400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1140400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-941300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-863800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-183900</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1671,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-577000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-435000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-715400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-802400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-888800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2032400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1140400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-941300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-863800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-183900</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1772,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,29 +1788,31 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>519000</v>
+      </c>
+      <c r="F41" s="3">
         <v>923700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>477200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>844000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>719300</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,8 +1822,14 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1682,28 +1860,34 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>287100</v>
+        <v>258000</v>
       </c>
       <c r="E43" s="3">
-        <v>302700</v>
+        <v>282000</v>
       </c>
       <c r="F43" s="3">
-        <v>297500</v>
+        <v>295400</v>
       </c>
       <c r="G43" s="3">
-        <v>289800</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
+        <v>313100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>306000</v>
+      </c>
+      <c r="I43" s="3">
+        <v>300800</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
@@ -1714,8 +1898,14 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,28 +1936,34 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>260600</v>
+        <v>328000</v>
       </c>
       <c r="E45" s="3">
-        <v>233100</v>
+        <v>318000</v>
       </c>
       <c r="F45" s="3">
-        <v>256100</v>
+        <v>252400</v>
       </c>
       <c r="G45" s="3">
-        <v>269800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
+        <v>222800</v>
+      </c>
+      <c r="H45" s="3">
+        <v>247700</v>
+      </c>
+      <c r="I45" s="3">
+        <v>258800</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
@@ -1778,29 +1974,35 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1119000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1471400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1013100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1397600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1278900</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,28 +2012,34 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>239300</v>
+        <v>137000</v>
       </c>
       <c r="E47" s="3">
-        <v>245500</v>
+        <v>218000</v>
       </c>
       <c r="F47" s="3">
-        <v>243800</v>
+        <v>253700</v>
       </c>
       <c r="G47" s="3">
-        <v>243700</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
+        <v>262600</v>
+      </c>
+      <c r="H47" s="3">
+        <v>258500</v>
+      </c>
+      <c r="I47" s="3">
+        <v>259500</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
@@ -1842,29 +2050,35 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>16837000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>17790000</v>
+      </c>
+      <c r="F48" s="3">
         <v>18426300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>19119600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>19914400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>20852900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1874,29 +2088,35 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>761000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>752000</v>
+      </c>
+      <c r="F49" s="3">
         <v>734100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>735200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>732500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>729300</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1906,8 +2126,14 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2164,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,28 +2202,34 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>885100</v>
+        <v>692000</v>
       </c>
       <c r="E52" s="3">
-        <v>842500</v>
+        <v>807000</v>
       </c>
       <c r="F52" s="3">
-        <v>898100</v>
+        <v>870600</v>
       </c>
       <c r="G52" s="3">
-        <v>978700</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>825400</v>
+      </c>
+      <c r="H52" s="3">
+        <v>883400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>962900</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2002,8 +2240,14 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,29 +2278,35 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>19638000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>20686000</v>
+      </c>
+      <c r="F54" s="3">
         <v>21756200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>21955900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>23186300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>24083400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2316,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2336,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,29 +2352,31 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>515000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>563000</v>
+      </c>
+      <c r="F57" s="3">
         <v>621100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>602800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>537600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>576600</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,29 +2386,35 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>26000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F58" s="3">
         <v>34300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>387400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>391700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>23600</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2158,29 +2424,35 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1559000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1525000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1477300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1423300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1407400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1564100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,29 +2462,35 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2100000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2121000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2132700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2413500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2336800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2164200</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,29 +2500,35 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3238000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2902000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2903600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2899300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2900400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2520600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
       <c r="J61" s="3">
         <v>0</v>
       </c>
@@ -2254,29 +2538,35 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16617000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>17523000</v>
+      </c>
+      <c r="F62" s="3">
         <v>18133300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>18658200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>19237000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>19839500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2576,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2614,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2652,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,29 +2690,35 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22297000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22937000</v>
+      </c>
+      <c r="F66" s="3">
         <v>23638200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>24253400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>24772100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>24852000</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2728,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2748,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2782,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2820,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,19 +2835,19 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>8379200</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>8379200</v>
+        <v>0</v>
       </c>
       <c r="G70" s="3">
         <v>8379200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>8379200</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>8379200</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2524,8 +2858,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,29 +2896,35 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15155000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-14578000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-14142500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-13427100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-12624700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11735800</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2934,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2972,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3010,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,29 +3048,35 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-2659000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2251000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1882100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-10676700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-9965000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-9147700</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +3086,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +3124,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-577000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-435000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-715400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-802400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-888800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2032400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1140400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-941300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-863800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-183900</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,40 +3225,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>158000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F83" s="3">
         <v>174300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>170800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>180200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>184200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>191200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>198000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>195800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>194400</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3297,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3335,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3373,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3411,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,40 +3449,52 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-197000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-338000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-372800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-380200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-617800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-541200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-439300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-249100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-354700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>186200</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,40 +3507,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-94300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-49400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-31200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-121900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-188400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-267800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-316500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-668500</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3579,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,40 +3617,52 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-103100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-57500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-49700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-137000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-247000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-190000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-382000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>374900</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3675,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3709,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3747,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3785,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,100 +3823,124 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>386000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F100" s="3">
         <v>919000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>69200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>760800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>588900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>549200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>559100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-105700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-1049400</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>3400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>1400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>3900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-6700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>5700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>18300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>15400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-38000</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-405000</v>
+      </c>
+      <c r="F102" s="3">
         <v>446500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-367000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>97400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-96000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-131500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>138300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-827100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-526300</v>
       </c>
-      <c r="L102" s="3" t="s">
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>WE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>817000</v>
+      </c>
+      <c r="E8" s="3">
         <v>815000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>765000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>717800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>661000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>593500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>597900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>666500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>810800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>881700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1056900</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>753000</v>
+      </c>
+      <c r="E9" s="3">
         <v>774000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>783000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>775200</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>792900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>823900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>851700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>860100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>985100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>959700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1011100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>64000</v>
+      </c>
+      <c r="E10" s="3">
         <v>41000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-18000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-57400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-131900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-230400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-253800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-193600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-174300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-78000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>45800</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -850,8 +862,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -888,8 +901,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,84 +942,93 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E14" s="3">
         <v>10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-39000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>192700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>103500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>215100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>793300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>280600</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>364000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>453900</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E15" s="3">
         <v>158000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>171000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>174300</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>170800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>180200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>184200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>191200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>198000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>195800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>194400</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1015,84 +1040,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1153000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1131000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1123000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1419400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1301100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1443500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2103700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1941600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1843900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1909300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2145200</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-336000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-316000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-358000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-701600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-640100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-850000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-1505800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1275100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1033100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1027600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1088300</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1107,160 +1139,173 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-174000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-157000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-34000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>13000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-85100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>44700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-448600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>204700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>132200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>17500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>586500</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-354000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-315000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-221000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-514300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-554400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-625100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1770200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-879100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-703000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-814300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-307400</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E22" s="3">
         <v>159000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>113000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>115600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>121300</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>113300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>104600</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>93000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>93200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>44800</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-626000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-632000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-505000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-804200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-846500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-918500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-2058900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1170500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-993900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1103300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-546600</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1268,37 +1313,40 @@
         <v>3000</v>
       </c>
       <c r="E24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9000</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1335,84 +1383,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-629000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-635000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-504000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-802600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-844300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-922500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-2062200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1168300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-999500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1110400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-555600</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-568000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-577000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-435000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-715400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-802400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-888800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-2032400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1140400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-941300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-863800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-183900</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1449,8 +1506,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1487,8 +1547,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1525,8 +1588,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1563,84 +1629,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E32" s="3">
         <v>157000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>34000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-13000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>85100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-44700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>448600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-204700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-132200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-17500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-586500</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-568000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-577000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-435000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-715400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-802400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-888800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-2032400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1140400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-941300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-863800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-183900</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1677,89 +1752,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-568000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-577000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-435000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-715400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-802400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-888800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-2032400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1140400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-941300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-863800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-183900</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1774,8 +1858,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1790,32 +1875,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>460000</v>
+      </c>
+      <c r="E41" s="3">
         <v>625000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>519000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>923700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>477200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>844000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>719300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1828,8 +1914,11 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1866,32 +1955,35 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E43" s="3">
         <v>258000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>282000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>295400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>313100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>306000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>300800</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1904,8 +1996,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1942,32 +2037,35 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>221000</v>
+      </c>
+      <c r="E45" s="3">
         <v>328000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>318000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>252400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>222800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>247700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>258800</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1980,32 +2078,35 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>866000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1211000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1119000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1471400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1013100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1397600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1278900</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,32 +2119,35 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E47" s="3">
         <v>137000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>218000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>253700</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>262600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>258500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>259500</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2056,32 +2160,35 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15912000</v>
+      </c>
+      <c r="E48" s="3">
         <v>16837000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>17790000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>18426300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>19119600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19914400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>20852900</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,32 +2201,35 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E49" s="3">
         <v>761000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>752000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>734100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>735200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>732500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>729300</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2132,8 +2242,11 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2170,8 +2283,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2208,32 +2324,35 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>625000</v>
+      </c>
+      <c r="E52" s="3">
         <v>692000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>807000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>870600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>825400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>883400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>962900</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2246,8 +2365,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2284,32 +2406,35 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>18339000</v>
+      </c>
+      <c r="E54" s="3">
         <v>19638000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>20686000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>21756200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21955900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>23186300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>24083400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2322,8 +2447,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2338,8 +2466,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2354,32 +2483,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>496000</v>
+      </c>
+      <c r="E57" s="3">
         <v>515000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>563000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>621100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>602800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>537600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>576600</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2392,32 +2522,35 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E58" s="3">
         <v>26000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>33000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>34300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>387400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>391700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>23600</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2430,32 +2563,35 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1574000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1559000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1525000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1477300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1423300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1407400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1564100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2468,32 +2604,35 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2094000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2100000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2121000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2132700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2413500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2336800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2164200</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2506,32 +2645,35 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3239000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3238000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2902000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2903600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2899300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2900400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2520600</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2544,32 +2686,35 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15761000</v>
+      </c>
+      <c r="E62" s="3">
         <v>16617000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17523000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>18133300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18658200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>19237000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19839500</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2582,8 +2727,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2620,8 +2768,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2658,8 +2809,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2696,32 +2850,35 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21371000</v>
+      </c>
+      <c r="E66" s="3">
         <v>22297000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22937000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23638200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24253400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24772100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24852000</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2734,8 +2891,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2750,8 +2910,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2788,8 +2949,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2826,8 +2990,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2841,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>8379200</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>8379200</v>
@@ -2850,7 +3017,7 @@
         <v>8379200</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>8379200</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -2864,8 +3031,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2902,32 +3072,35 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15723000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15155000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-14578000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14142500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13427100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-12624700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-11735800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2940,8 +3113,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2978,8 +3154,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3016,8 +3195,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3054,32 +3236,35 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3032000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-2659000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2251000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-1882100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-10676700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-9965000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9147700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3092,8 +3277,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3130,89 +3318,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-568000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-577000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-435000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-715400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-802400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-888800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-2032400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1140400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-941300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-863800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-183900</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3227,46 +3424,50 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E83" s="3">
         <v>158000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>171000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>174300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>170800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>180200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>184200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>191200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>198000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>195800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>194400</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3303,8 +3504,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3341,8 +3545,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3379,8 +3586,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3417,8 +3627,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3455,46 +3668,52 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-110000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-197000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-338000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-372800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-380200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-617800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-541200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-439300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-249100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-354700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>186200</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3509,46 +3728,50 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-101000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-74000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-94300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-49400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-31200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-121900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-188400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-267800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-316500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-668500</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3585,8 +3808,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3623,46 +3849,52 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-51000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-85000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-88000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-103100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-57500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-49700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-137000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-247000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-190000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-382000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>374900</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3677,8 +3909,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3715,8 +3948,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3753,8 +3989,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3791,8 +4030,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3829,118 +4071,130 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E100" s="3">
         <v>386000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>22000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>919000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>69200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>760800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>588900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>549200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>559100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-105700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-1049400</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-2000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>3400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-6700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>5700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>18300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>15400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-38000</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-165000</v>
+      </c>
+      <c r="E102" s="3">
         <v>102000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-405000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>446500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-367000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>97400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-96000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-131500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>138300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-827100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-526300</v>
       </c>
-      <c r="N102" s="3" t="s">
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>WE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,189 +665,201 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E8" s="3">
         <v>817000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>815000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>765000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>717800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>661000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>593500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>597900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>666500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>810800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>881700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1056900</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>725000</v>
+      </c>
+      <c r="E9" s="3">
         <v>753000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>774000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>783000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>775200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>792900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>823900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>851700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>860100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>985100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>959700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1011100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E10" s="3">
         <v>64000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>41000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-18000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-57400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-131900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-230400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-253800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-193600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-174300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-78000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>45800</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -863,8 +875,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -904,8 +917,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -945,49 +961,55 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>391000</v>
+      </c>
+      <c r="E14" s="3">
         <v>56000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>10000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-39000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>192700</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>103500</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>215100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>793300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>280600</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>364000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>453900</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -995,40 +1017,43 @@
         <v>156000</v>
       </c>
       <c r="E15" s="3">
+        <v>156000</v>
+      </c>
+      <c r="F15" s="3">
         <v>158000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>171000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>174300</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>170800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>180200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>184200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>191200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>198000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>195800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>194400</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1041,90 +1066,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1153000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1131000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1123000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1419400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1301100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1443500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2103700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1941600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1843900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1909300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2145200</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-581000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-336000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-316000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-358000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-701600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-640100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-850000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-1505800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-1275100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-1033100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1027600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1088300</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1140,213 +1172,229 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>183000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-174000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-157000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>13000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-85100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>44700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-448600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>204700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>132200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>17500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>586500</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-242000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-354000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-315000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-221000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-514300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-554400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-625100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1770200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-879100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-703000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-814300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-307400</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>128000</v>
+      </c>
+      <c r="E22" s="3">
         <v>116000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>159000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>113000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>115600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>121300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>113300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>104600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>93000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>93200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>44800</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-526000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-626000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-632000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-505000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-804200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-846500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-918500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-2058900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1170500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-993900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1103300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-546600</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="E24" s="3">
         <v>3000</v>
       </c>
       <c r="F24" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9000</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1386,90 +1434,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-527000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-629000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-635000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-504000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-802600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-844300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-922500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-2062200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1168300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-999500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1110400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-555600</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-454000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-568000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-577000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-435000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-715400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-802400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-888800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-2032400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1140400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-941300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-863800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-183900</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1509,8 +1566,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1550,8 +1610,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1591,8 +1654,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1632,90 +1698,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-183000</v>
+      </c>
+      <c r="E32" s="3">
         <v>174000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>157000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-13000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>85100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-44700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>448600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-204700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-132200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-17500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-586500</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-454000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-568000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-577000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-435000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-715400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-802400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-888800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-2032400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1140400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-941300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-863800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-183900</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1755,95 +1830,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-454000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-568000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-577000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-435000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-715400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-802400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-888800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-2032400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1140400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-941300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-863800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-183900</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1859,8 +1943,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1876,35 +1961,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E41" s="3">
         <v>460000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>625000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>519000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>923700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>477200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>844000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>719300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1917,8 +2003,11 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1958,35 +2047,38 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>180000</v>
+      </c>
+      <c r="E43" s="3">
         <v>185000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>258000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>282000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>295400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>313100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>306000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>300800</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1999,8 +2091,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2040,35 +2135,38 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E45" s="3">
         <v>221000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>328000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>318000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>252400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>222800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>247700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>258800</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2081,35 +2179,38 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>689000</v>
+      </c>
+      <c r="E46" s="3">
         <v>866000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1211000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1119000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1471400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1013100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1397600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1278900</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2122,8 +2223,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2131,26 +2235,26 @@
         <v>171000</v>
       </c>
       <c r="E47" s="3">
+        <v>171000</v>
+      </c>
+      <c r="F47" s="3">
         <v>137000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>218000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>253700</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>262600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>258500</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>259500</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2163,35 +2267,38 @@
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>15634000</v>
+      </c>
+      <c r="E48" s="3">
         <v>15912000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>16837000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>17790000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>18426300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>19119600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>19914400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>20852900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,35 +2311,38 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>737000</v>
+      </c>
+      <c r="E49" s="3">
         <v>765000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>761000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>752000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>734100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>735200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>732500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>729300</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2245,8 +2355,11 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2286,8 +2399,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2327,35 +2443,38 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>632000</v>
+      </c>
+      <c r="E52" s="3">
         <v>625000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>692000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>807000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>870600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>825400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>883400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>962900</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2368,8 +2487,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2409,35 +2531,38 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>17863000</v>
+      </c>
+      <c r="E54" s="3">
         <v>18339000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>19638000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>20686000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>21756200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>21955900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>23186300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>24083400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2450,8 +2575,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2467,8 +2595,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2484,35 +2613,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>526000</v>
+      </c>
+      <c r="E57" s="3">
         <v>496000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>515000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>563000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>621100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>602800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>537600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>576600</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,35 +2655,38 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E58" s="3">
         <v>24000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>26000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>33000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>34300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>387400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>391700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>23600</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,35 +2699,38 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1677000</v>
+      </c>
+      <c r="E59" s="3">
         <v>1574000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1559000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1525000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1477300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1423300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1407400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1564100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2607,35 +2743,38 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2230000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2094000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2100000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2121000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2132700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2413500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2336800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2164200</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,35 +2787,38 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3241000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3239000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3238000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2902000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2903600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2899300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2900400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2520600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2689,35 +2831,38 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>15847000</v>
+      </c>
+      <c r="E62" s="3">
         <v>15761000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>16617000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17523000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>18133300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>18658200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>19237000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>19839500</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2730,8 +2875,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2771,8 +2919,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2812,8 +2963,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2853,35 +3007,38 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21533000</v>
+      </c>
+      <c r="E66" s="3">
         <v>21371000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>22297000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>22937000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23638200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24253400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24772100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24852000</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2894,8 +3051,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2911,8 +3071,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2952,8 +3113,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2993,8 +3157,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3011,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>8379200</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>8379200</v>
@@ -3020,7 +3187,7 @@
         <v>8379200</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>8379200</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3034,8 +3201,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3075,35 +3245,38 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16177000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15723000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15155000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-14578000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-14142500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13427100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-12624700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-11735800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3116,8 +3289,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3157,8 +3333,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3198,8 +3377,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3239,35 +3421,38 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3670000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3032000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-2659000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2251000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-1882100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-10676700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-9965000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-9147700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3280,8 +3465,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3321,95 +3509,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-454000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-568000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-577000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-435000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-715400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-802400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-888800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-2032400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1140400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-941300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-863800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-183900</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3425,8 +3622,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3434,40 +3632,43 @@
         <v>156000</v>
       </c>
       <c r="E83" s="3">
+        <v>156000</v>
+      </c>
+      <c r="F83" s="3">
         <v>158000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>171000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>174300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>170800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>180200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>184200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>191200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>198000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>195800</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>194400</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3507,8 +3708,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3548,8 +3752,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3589,8 +3796,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3630,8 +3840,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3671,49 +3884,55 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-110000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-197000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-338000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-372800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-380200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-617800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-541200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-439300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-249100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-354700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>186200</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3729,49 +3948,53 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-95000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-101000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-74000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-94300</v>
-      </c>
       <c r="H91" s="3">
-        <v>-49400</v>
+        <v>-104900</v>
       </c>
       <c r="I91" s="3">
-        <v>-31200</v>
+        <v>-60900</v>
       </c>
       <c r="J91" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-121900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-188400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-267800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-316500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-668500</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3811,8 +4034,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3852,49 +4078,55 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-51000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-85000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-88000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-57500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-49700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-137000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-247000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-190000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-382000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>374900</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3910,8 +4142,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3951,8 +4184,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3992,8 +4228,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4033,8 +4272,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4074,127 +4316,139 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>386000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>22000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>919000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>69200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>760800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>588900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>549200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>559100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-105700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-1049400</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-2000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>3400</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>3900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-6700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>5700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>18300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-38000</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-168000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-165000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>102000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-405000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>446500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-367000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>97400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-96000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-131500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>138300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-827100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-526300</v>
       </c>
-      <c r="O102" s="3" t="s">
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WE_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="92">
   <si>
     <t>WE</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,201 +665,225 @@
     <col min="1" max="1" width="5.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>844000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>849000</v>
+      </c>
+      <c r="F8" s="3">
         <v>848000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>817000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>815000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>765000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>717800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>661000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>593500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>597900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>666500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>810800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>881700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1056900</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>733000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>731000</v>
+      </c>
+      <c r="F9" s="3">
         <v>725000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>753000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>774000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>783000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>775200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>792900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>823900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>851700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>860100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>985100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>959700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1011100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>118000</v>
+      </c>
+      <c r="F10" s="3">
         <v>123000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>64000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>41000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-18000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-57400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>-131900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>-230400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-253800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-193600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>-174300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>-78000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>45800</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -876,8 +900,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -920,8 +946,14 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -964,52 +996,64 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>156000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>31000</v>
+      </c>
+      <c r="F14" s="3">
         <v>391000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>56000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>-39000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>192700</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>103500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>215100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>793300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>280600</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>364000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>453900</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1017,43 +1061,49 @@
         <v>156000</v>
       </c>
       <c r="E15" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F15" s="3">
         <v>156000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
+        <v>156000</v>
+      </c>
+      <c r="H15" s="3">
         <v>158000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>171000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>174300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>170800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>180200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>184200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>191200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>198000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>195800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>194400</v>
       </c>
-      <c r="P15" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1067,96 +1117,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1195000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1053000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1429000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1153000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1131000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1123000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1419400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1301100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1443500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2103700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1941600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1843900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1909300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2145200</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-351000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-204000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-581000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-336000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-316000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-358000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-701600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-640100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-850000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1505800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-1275100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-1033100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-1027600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1088300</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1173,228 +1237,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F20" s="3">
         <v>183000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-174000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-157000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-34000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>13000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-85100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>44700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-448600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>204700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>132200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>17500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>586500</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-242000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-354000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-315000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-221000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-514300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-554400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-625100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1770200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-879100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-703000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-814300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-307400</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E22" s="3">
+        <v>131000</v>
+      </c>
+      <c r="F22" s="3">
         <v>128000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>116000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>159000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>113000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>115600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>121300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>113300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>104600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>100200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>93000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>93200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>44800</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-392000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-302000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-526000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-626000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-632000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-505000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-804200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-846500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-918500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-2058900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1170500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-993900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1103300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-546600</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2300</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>5600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>7100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>9000</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1437,96 +1533,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-397000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-299000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-527000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-629000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-635000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-504000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-802600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-844300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-922500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-2062200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1168300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-999500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1110400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-555600</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-349000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-454000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-568000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-577000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-435000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-715400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-802400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-888800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-2032400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1140400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-941300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-863800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-183900</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1569,8 +1683,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1613,8 +1733,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1657,8 +1783,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1701,96 +1833,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-183000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>174000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>157000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>34000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-13000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>85100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-44700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>448600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-204700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-132200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-17500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-586500</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-349000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-454000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-568000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-577000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-435000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-715400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-802400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-888800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-2032400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1140400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-941300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-863800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-183900</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1833,101 +1983,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-349000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-454000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-568000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-577000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-435000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-715400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-802400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-888800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-2032400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1140400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-941300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-863800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-183900</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1944,8 +2112,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1962,41 +2132,43 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>205000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>224000</v>
+      </c>
+      <c r="F41" s="3">
         <v>287000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>460000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>625000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>519000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>923700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>477200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>844000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>719300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2006,8 +2178,14 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2050,41 +2228,47 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>171000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>167000</v>
+      </c>
+      <c r="F43" s="3">
         <v>180000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>185000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>258000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>282000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>295400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>313100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>306000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300800</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2094,8 +2278,14 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2138,41 +2328,47 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>447000</v>
+      </c>
+      <c r="F45" s="3">
         <v>222000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>221000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>328000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>318000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>252400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>222800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>247700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>258800</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2182,41 +2378,47 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>744000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>838000</v>
+      </c>
+      <c r="F46" s="3">
         <v>689000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>866000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1211000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1119000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1471400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1013100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1397600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1278900</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,41 +2428,47 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>152000</v>
+      </c>
+      <c r="F47" s="3">
         <v>171000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>171000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>137000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>218000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>253700</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>262600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>258500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>259500</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2270,41 +2478,47 @@
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>13135000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>14592000</v>
+      </c>
+      <c r="F48" s="3">
         <v>15634000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>15912000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>16837000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>17790000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>18426300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>19119600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>19914400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>20852900</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2314,41 +2528,47 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>736000</v>
+      </c>
+      <c r="F49" s="3">
         <v>737000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>765000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>761000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>752000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>734100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>735200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>732500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>729300</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2358,8 +2578,14 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2402,8 +2628,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2446,41 +2678,47 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>314000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>631000</v>
+      </c>
+      <c r="F52" s="3">
         <v>632000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>625000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>692000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>807000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>870600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>825400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>883400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>962900</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2490,8 +2728,14 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2534,41 +2778,47 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>15063000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>16949000</v>
+      </c>
+      <c r="F54" s="3">
         <v>17863000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>18339000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>19638000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>20686000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>21756200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>21955900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>23186300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>24083400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2578,8 +2828,14 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2596,8 +2852,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2614,41 +2872,43 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>455000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>495000</v>
+      </c>
+      <c r="F57" s="3">
         <v>526000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>496000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>515000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>563000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>621100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>602800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>537600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>576600</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2658,41 +2918,47 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F58" s="3">
         <v>27000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>24000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>26000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>33000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>34300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>387400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>391700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>23600</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2702,41 +2968,47 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1706000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="F59" s="3">
         <v>1677000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1574000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1559000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1525000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1477300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1423300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1407400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1564100</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2746,41 +3018,47 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2189000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2275000</v>
+      </c>
+      <c r="F60" s="3">
         <v>2230000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2094000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2100000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2121000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2132700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2413500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2336800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2164200</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2790,41 +3068,47 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2928000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3595000</v>
+      </c>
+      <c r="F61" s="3">
         <v>3241000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>3239000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>3238000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2902000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2903600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2899300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2900400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2520600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -2834,41 +3118,47 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>13539000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>14865000</v>
+      </c>
+      <c r="F62" s="3">
         <v>15847000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>15761000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>16617000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>17523000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>18133300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>18658200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>19237000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>19839500</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2878,8 +3168,14 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2922,8 +3218,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2966,8 +3268,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3010,41 +3318,47 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>18781000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>20912000</v>
+      </c>
+      <c r="F66" s="3">
         <v>21533000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>21371000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>22297000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22937000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>23638200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>24253400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>24772100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24852000</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3054,8 +3368,14 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3072,8 +3392,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3116,8 +3438,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3160,8 +3488,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3181,19 +3515,19 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>8379200</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>8379200</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>8379200</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>8379200</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>8379200</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3204,8 +3538,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3248,41 +3588,47 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-16790000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16441000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-16177000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-15723000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-15155000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-14578000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-14142500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-13427100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-12624700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-11735800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3292,8 +3638,14 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3336,8 +3688,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3380,8 +3738,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3424,41 +3788,47 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3718000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3963000</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3670000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3032000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2659000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2251000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1882100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-10676700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-9965000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-9147700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3468,8 +3838,14 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3512,101 +3888,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-349000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-264000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-454000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-568000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-577000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-435000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-715400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-802400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-888800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-2032400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1140400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-941300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-863800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-183900</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3623,8 +4017,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3632,43 +4028,49 @@
         <v>156000</v>
       </c>
       <c r="E83" s="3">
+        <v>148000</v>
+      </c>
+      <c r="F83" s="3">
         <v>156000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
+        <v>156000</v>
+      </c>
+      <c r="H83" s="3">
         <v>158000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>171000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>174300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>170800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>180200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>184200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>191200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>198000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>195800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>194400</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3711,8 +4113,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3755,8 +4163,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3799,8 +4213,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3843,8 +4263,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3887,52 +4313,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-246000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-284000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-88000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-110000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-197000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-338000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-372800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-380200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-617800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-541200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-439300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-249100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-354700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>186200</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3949,52 +4387,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-59000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-68000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-95000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-101000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-74000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-104900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-60900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-41800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-121900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-188400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-267800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-316500</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-668500</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4037,8 +4483,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4081,52 +4533,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-70000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-51000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-85000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-88000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-103100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-57500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-49700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-137000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-247000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-190000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-382000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>374900</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4143,8 +4607,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4187,8 +4653,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4231,8 +4703,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4275,8 +4753,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4319,136 +4803,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>353000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-10000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-1000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>386000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>22000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>919000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>69200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>760800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>588900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>549200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>559100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-105700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-1049400</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-2000</v>
       </c>
       <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-3000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-2000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>3400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>1400</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>3900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-6700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>5700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>18300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>15400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-38000</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-168000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-165000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>102000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-405000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>446500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-367000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>97400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-96000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-131500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>138300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-827100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-526300</v>
       </c>
-      <c r="P102" s="3" t="s">
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
